--- a/results/graphiques_2012_2022.xlsx
+++ b/results/graphiques_2012_2022.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugodemenez/Library/CloudStorage/OneDrive-Bibliothèquespartagées-JUNIAGrandeécoled'ingénieurs/STUDENT_EMERGING_MARKETS_MEMOIRE_2023 - General/Memoire_M2_2023/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/hugo_demenez_student_junia_com/Documents/MFE/Memoire_M2_2023/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2A79D6-A734-1D4E-8256-1DF3A317B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -3788,7 +3788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AAA7D32-09D5-734A-8961-79EC5AAD4B7F}" type="CELLRANGE">
+                    <a:fld id="{728123B5-C2F4-3746-A37B-88017C38B1E7}" type="CELLRANGE">
                       <a:rPr lang="fr-FR"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -28253,17 +28253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -28446,6 +28435,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28456,23 +28456,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41414027-D3AB-4939-916D-9C4532D60A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28491,6 +28474,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE9A935-8E58-408C-BAB5-61DE2923C560}">
   <ds:schemaRefs>
